--- a/log-service/downloads_calendar/Calendar_8322.xlsx
+++ b/log-service/downloads_calendar/Calendar_8322.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>№ этапа</t>
   </si>
@@ -167,7 +167,7 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>Этап строительства 6</t>
+    <t>Этап строительства 4</t>
   </si>
   <si>
     <t>13.1</t>
@@ -203,40 +203,148 @@
     <t>16.1</t>
   </si>
   <si>
+    <t>Этап строительства 5</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
     <t>Этап строительства 7</t>
   </si>
   <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>20.1</t>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>Этап строительства 8</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>Этап строительства 9</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>32.1</t>
   </si>
 </sst>
 </file>
@@ -359,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E62"/>
+  <dimension ref="B2:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45432.0</v>
+        <v>45433.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45448.0</v>
+        <v>45449.0</v>
       </c>
     </row>
     <row r="5">
@@ -415,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45448.0</v>
+        <v>45449.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45481.0</v>
+        <v>45482.0</v>
       </c>
     </row>
     <row r="6">
@@ -429,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45481.0</v>
+        <v>45482.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45541.0</v>
+        <v>45544.0</v>
       </c>
     </row>
     <row r="7">
@@ -443,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45481.0</v>
+        <v>45482.0</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>45509.0</v>
@@ -563,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45448.0</v>
+        <v>45449.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45488.0</v>
+        <v>45489.0</v>
       </c>
     </row>
     <row r="17">
@@ -577,10 +685,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45488.0</v>
+        <v>45489.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45539.0</v>
+        <v>45540.0</v>
       </c>
     </row>
     <row r="18">
@@ -591,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45539.0</v>
+        <v>45540.0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>45601.0</v>
@@ -605,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45539.0</v>
+        <v>45540.0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>45568.0</v>
@@ -725,10 +833,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45488.0</v>
+        <v>45489.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45511.0</v>
+        <v>45512.0</v>
       </c>
     </row>
     <row r="29">
@@ -739,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45511.0</v>
+        <v>45512.0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45554.0</v>
+        <v>45555.0</v>
       </c>
     </row>
     <row r="30">
@@ -753,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45554.0</v>
+        <v>45555.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45614.0</v>
+        <v>45615.0</v>
       </c>
     </row>
     <row r="31">
@@ -767,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45554.0</v>
+        <v>45555.0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>45601.0</v>
@@ -887,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45511.0</v>
+        <v>45512.0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>45538.0</v>
@@ -904,7 +1012,7 @@
         <v>45538.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45566.0</v>
+        <v>45567.0</v>
       </c>
     </row>
     <row r="42">
@@ -915,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45566.0</v>
+        <v>45567.0</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>45628.0</v>
@@ -929,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45566.0</v>
+        <v>45567.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45601.0</v>
+        <v>45602.0</v>
       </c>
     </row>
     <row r="44">
@@ -943,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45601.0</v>
+        <v>45602.0</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>45666.0</v>
@@ -957,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45601.0</v>
+        <v>45602.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45632.0</v>
+        <v>45635.0</v>
       </c>
     </row>
     <row r="46">
@@ -971,10 +1079,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45632.0</v>
+        <v>45635.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45692.0</v>
+        <v>45695.0</v>
       </c>
     </row>
     <row r="47">
@@ -985,10 +1093,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45601.0</v>
+        <v>45602.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45636.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="48">
@@ -999,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45636.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>45698.0</v>
@@ -1027,10 +1135,10 @@
         <v>26</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45636.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45756.0</v>
+        <v>45757.0</v>
       </c>
     </row>
     <row r="51">
@@ -1049,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45527.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45548.0</v>
+        <v>45553.0</v>
       </c>
     </row>
     <row r="53">
@@ -1063,10 +1171,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45548.0</v>
+        <v>45553.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45581.0</v>
+        <v>45582.0</v>
       </c>
     </row>
     <row r="54">
@@ -1077,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45581.0</v>
+        <v>45582.0</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>45666.0</v>
@@ -1091,10 +1199,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45581.0</v>
+        <v>45582.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45628.0</v>
+        <v>45629.0</v>
       </c>
     </row>
     <row r="56">
@@ -1105,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45628.0</v>
+        <v>45629.0</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>45691.0</v>
@@ -1119,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45628.0</v>
+        <v>45629.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45667.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="58">
@@ -1133,10 +1241,10 @@
         <v>18</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45667.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45727.0</v>
+        <v>45719.0</v>
       </c>
     </row>
     <row r="59">
@@ -1147,10 +1255,10 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45628.0</v>
+        <v>45629.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45671.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="60">
@@ -1161,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45671.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45733.0</v>
+        <v>45719.0</v>
       </c>
     </row>
     <row r="61">
@@ -1175,10 +1283,10 @@
         <v>24</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45733.0</v>
+        <v>45719.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45853.0</v>
+        <v>45841.0</v>
       </c>
     </row>
     <row r="62">
@@ -1189,19 +1297,508 @@
         <v>26</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45671.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45791.0</v>
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45553.0</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45574.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45574.0</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45706.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45750.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45751.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45751.0</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45873.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45811.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45574.0</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45601.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45601.0</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45615.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45615.0</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45677.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45615.0</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45698.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45698.0</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45758.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45700.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45700.0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45761.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45761.0</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45881.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45700.0</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45821.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s" s="4">
+        <v>99</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45590.0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45629.0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45750.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45720.0</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45902.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45720.0</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45840.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/log-service/downloads_calendar/Calendar_8322.xlsx
+++ b/log-service/downloads_calendar/Calendar_8322.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
   <si>
     <t>Календарный план</t>
   </si>
@@ -68,10 +68,10 @@
     <t>Инженерные изыскания</t>
   </si>
   <si>
-    <t>13.06.2024</t>
-  </si>
-  <si>
-    <t>05.11.2024</t>
+    <t>24.06.2024</t>
+  </si>
+  <si>
+    <t>07.07.2025</t>
   </si>
   <si>
     <t>1.1</t>
@@ -80,7 +80,7 @@
     <t>Инженерные изыскания (полевые работы)</t>
   </si>
   <si>
-    <t>05.08.2024</t>
+    <t>03.02.2025</t>
   </si>
   <si>
     <t>1.2</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">Инженерные изыскания (камеральные  работы) - выдача отчета (60% от общей стоимости камеральных работ) </t>
   </si>
   <si>
-    <t>23.07.2024</t>
-  </si>
-  <si>
-    <t>03.09.2024</t>
+    <t>16.01.2025</t>
+  </si>
+  <si>
+    <t>19.05.2025</t>
   </si>
   <si>
     <t>1.3</t>
@@ -107,10 +107,7 @@
     <t>Инженерно-экологические изыскания</t>
   </si>
   <si>
-    <t>22.07.2024</t>
-  </si>
-  <si>
-    <t>10.12.2024</t>
+    <t>09.01.2025</t>
   </si>
   <si>
     <t>1.5</t>
@@ -122,10 +119,10 @@
     <t>Рабочая документация</t>
   </si>
   <si>
-    <t>28.08.2024</t>
-  </si>
-  <si>
-    <t>09.01.2025</t>
+    <t>07.05.2025</t>
+  </si>
+  <si>
+    <t>06.10.2025</t>
   </si>
   <si>
     <t>2.1</t>
@@ -134,7 +131,7 @@
     <t>Рабочая документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>03.10.2024</t>
+    <t>08.07.2025</t>
   </si>
   <si>
     <t>2.2</t>
@@ -143,7 +140,7 @@
     <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>03.12.2024</t>
+    <t>03.09.2025</t>
   </si>
   <si>
     <t>2.3</t>
@@ -152,7 +149,10 @@
     <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
   </si>
   <si>
-    <t>27.09.2024</t>
+    <t>27.06.2025</t>
+  </si>
+  <si>
+    <t>18.08.2025</t>
   </si>
   <si>
     <t>2.4</t>
@@ -164,7 +164,7 @@
     <t>Проектная документация</t>
   </si>
   <si>
-    <t>15.07.2025</t>
+    <t>18.03.2026</t>
   </si>
   <si>
     <t>3.1</t>
@@ -179,7 +179,7 @@
     <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>17.03.2025</t>
+    <t>18.11.2025</t>
   </si>
   <si>
     <t>3.3</t>
@@ -191,7 +191,7 @@
     <t>Землеустроительные работы</t>
   </si>
   <si>
-    <t>15.05.2025</t>
+    <t>03.02.2026</t>
   </si>
   <si>
     <t>4.1</t>
@@ -218,7 +218,7 @@
     <t>Разработка рыбохозяйственного раздела</t>
   </si>
   <si>
-    <t>15.04.2025</t>
+    <t>13.01.2026</t>
   </si>
   <si>
     <t xml:space="preserve">ИТОГО: </t>
@@ -230,15 +230,24 @@
     <t>6</t>
   </si>
   <si>
+    <t>03.10.2025</t>
+  </si>
+  <si>
     <t>6.1</t>
   </si>
   <si>
-    <t>06.09.2024</t>
+    <t>03.06.2025</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
+    <t>12.05.2025</t>
+  </si>
+  <si>
+    <t>13.08.2025</t>
+  </si>
+  <si>
     <t>6.3</t>
   </si>
   <si>
@@ -251,36 +260,48 @@
     <t>7</t>
   </si>
   <si>
-    <t>24.10.2024</t>
-  </si>
-  <si>
-    <t>11.02.2025</t>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>09.01.2026</t>
   </si>
   <si>
     <t>7.1</t>
   </si>
   <si>
-    <t>14.11.2024</t>
+    <t>01.10.2025</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>13.01.2025</t>
+    <t>03.12.2025</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
+    <t>22.09.2025</t>
+  </si>
+  <si>
+    <t>13.11.2025</t>
+  </si>
+  <si>
     <t>7.4</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>03.06.2026</t>
+  </si>
+  <si>
     <t>8.1</t>
   </si>
   <si>
+    <t>14.11.2025</t>
+  </si>
+  <si>
     <t>8.2</t>
   </si>
   <si>
@@ -290,7 +311,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>16.05.2025</t>
+    <t>15.04.2026</t>
   </si>
   <si>
     <t>9.1</t>
@@ -305,7 +326,7 @@
     <t>10.2</t>
   </si>
   <si>
-    <t>16.04.2025</t>
+    <t>03.04.2026</t>
   </si>
   <si>
     <t>Этап строительства 3</t>
@@ -314,16 +335,19 @@
     <t>11</t>
   </si>
   <si>
+    <t>13.10.2025</t>
+  </si>
+  <si>
     <t>11.1</t>
   </si>
   <si>
-    <t>11.10.2024</t>
+    <t>09.07.2025</t>
   </si>
   <si>
     <t>11.2</t>
   </si>
   <si>
-    <t>13.11.2024</t>
+    <t>14.07.2025</t>
   </si>
   <si>
     <t>11.3</t>
@@ -338,40 +362,40 @@
     <t>12</t>
   </si>
   <si>
-    <t>03.04.2025</t>
+    <t>19.01.2026</t>
   </si>
   <si>
     <t>12.1</t>
   </si>
   <si>
+    <t>03.11.2025</t>
+  </si>
+  <si>
     <t>12.2</t>
   </si>
   <si>
-    <t>03.02.2025</t>
-  </si>
-  <si>
     <t>12.3</t>
   </si>
   <si>
-    <t>13.12.2024</t>
-  </si>
-  <si>
     <t>12.4</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>12.08.2025</t>
+    <t>14.07.2026</t>
   </si>
   <si>
     <t>13.1</t>
   </si>
   <si>
+    <t>05.11.2025</t>
+  </si>
+  <si>
     <t>13.2</t>
   </si>
   <si>
-    <t>14.04.2025</t>
+    <t>16.03.2026</t>
   </si>
   <si>
     <t>13.3</t>
@@ -380,9 +404,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>13.06.2025</t>
-  </si>
-  <si>
     <t>14.1</t>
   </si>
   <si>
@@ -395,7 +416,7 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>13.05.2025</t>
+    <t>11.05.2026</t>
   </si>
   <si>
     <t>Этап строительства 4</t>
@@ -404,12 +425,21 @@
     <t>16</t>
   </si>
   <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
+    <t>10.11.2025</t>
+  </si>
+  <si>
     <t>16.1</t>
   </si>
   <si>
     <t>16.2</t>
   </si>
   <si>
+    <t>15.08.2025</t>
+  </si>
+  <si>
     <t>16.3</t>
   </si>
   <si>
@@ -422,43 +452,46 @@
     <t>17</t>
   </si>
   <si>
-    <t>05.05.2025</t>
+    <t>14.10.2025</t>
+  </si>
+  <si>
+    <t>02.02.2026</t>
   </si>
   <si>
     <t>17.1</t>
   </si>
   <si>
+    <t>17.11.2025</t>
+  </si>
+  <si>
     <t>17.2</t>
   </si>
   <si>
-    <t>10.02.2025</t>
-  </si>
-  <si>
     <t>17.3</t>
   </si>
   <si>
-    <t>21.01.2025</t>
-  </si>
-  <si>
-    <t>19.02.2025</t>
-  </si>
-  <si>
     <t>17.4</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>09.09.2025</t>
+    <t>03.09.2026</t>
   </si>
   <si>
     <t>18.1</t>
   </si>
   <si>
+    <t>15.12.2025</t>
+  </si>
+  <si>
+    <t>10.02.2026</t>
+  </si>
+  <si>
     <t>18.2</t>
   </si>
   <si>
-    <t>12.05.2025</t>
+    <t>04.05.2026</t>
   </si>
   <si>
     <t>18.3</t>
@@ -467,7 +500,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>11.07.2025</t>
+    <t>08.07.2026</t>
   </si>
   <si>
     <t>19.1</t>
@@ -482,7 +515,7 @@
     <t>20.2</t>
   </si>
   <si>
-    <t>11.06.2025</t>
+    <t>19.06.2026</t>
   </si>
   <si>
     <t xml:space="preserve">ВСЕГО по договору: </t>
@@ -792,24 +825,24 @@
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" ht="42.0" customHeight="true">
       <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" ht="33.0" customHeight="true">
@@ -817,55 +850,55 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" ht="42.0" customHeight="true">
       <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" ht="42.0" customHeight="true">
       <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" ht="42.0" customHeight="true">
       <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="26" ht="42.0" customHeight="true">
@@ -879,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="33.0" customHeight="true">
@@ -890,7 +923,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>50</v>
@@ -904,10 +937,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="42.0" customHeight="true">
@@ -918,7 +951,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>55</v>
@@ -946,7 +979,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>59</v>
@@ -960,7 +993,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>59</v>
@@ -974,7 +1007,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>59</v>
@@ -988,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>59</v>
@@ -1002,7 +1035,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>68</v>
@@ -1047,12 +1080,12 @@
         <v>25</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="42.0" customHeight="true">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -1061,259 +1094,259 @@
         <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" ht="42.0" customHeight="true">
       <c r="A41" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" ht="42.0" customHeight="true">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="42.0" customHeight="true">
       <c r="A43" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" ht="42.0" customHeight="true">
       <c r="A44" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="45" ht="33.0" customHeight="true">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" ht="42.0" customHeight="true">
       <c r="A46" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" ht="42.0" customHeight="true">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" ht="42.0" customHeight="true">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="42.0" customHeight="true">
       <c r="A49" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" ht="33.0" customHeight="true">
       <c r="A50" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" ht="42.0" customHeight="true">
       <c r="A51" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" ht="42.0" customHeight="true">
       <c r="A52" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="42.0" customHeight="true">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" ht="33.0" customHeight="true">
       <c r="A54" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" ht="42.0" customHeight="true">
       <c r="A55" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="33.0" customHeight="true">
       <c r="A56" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="42.0" customHeight="true">
       <c r="A57" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="42.0" customHeight="true">
       <c r="A58" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="33.0" customHeight="true">
@@ -1327,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
@@ -1338,7 +1371,7 @@
     </row>
     <row r="61" ht="27.0" customHeight="true">
       <c r="A61" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -1346,282 +1379,282 @@
     </row>
     <row r="62" ht="33.0" customHeight="true">
       <c r="A62" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" ht="42.0" customHeight="true">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" ht="42.0" customHeight="true">
       <c r="A64" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="42.0" customHeight="true">
       <c r="A65" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" ht="42.0" customHeight="true">
       <c r="A66" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="67" ht="42.0" customHeight="true">
       <c r="A67" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="68" ht="33.0" customHeight="true">
       <c r="A68" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" ht="42.0" customHeight="true">
       <c r="A69" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" ht="42.0" customHeight="true">
       <c r="A70" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" ht="42.0" customHeight="true">
       <c r="A71" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" ht="42.0" customHeight="true">
       <c r="A72" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" ht="33.0" customHeight="true">
       <c r="A73" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" ht="42.0" customHeight="true">
       <c r="A74" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" ht="42.0" customHeight="true">
       <c r="A75" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" ht="42.0" customHeight="true">
       <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" ht="33.0" customHeight="true">
       <c r="A77" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" ht="42.0" customHeight="true">
       <c r="A78" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="33.0" customHeight="true">
       <c r="A79" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" ht="42.0" customHeight="true">
       <c r="A80" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" ht="42.0" customHeight="true">
       <c r="A81" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" ht="33.0" customHeight="true">
@@ -1632,10 +1665,10 @@
         <v>69</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" ht="15.0" customHeight="true">
@@ -1646,7 +1679,7 @@
     </row>
     <row r="84" ht="27.0" customHeight="true">
       <c r="A84" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -1654,282 +1687,282 @@
     </row>
     <row r="85" ht="33.0" customHeight="true">
       <c r="A85" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" ht="42.0" customHeight="true">
       <c r="A86" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="42.0" customHeight="true">
       <c r="A87" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" ht="42.0" customHeight="true">
       <c r="A88" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" ht="42.0" customHeight="true">
       <c r="A89" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="90" ht="42.0" customHeight="true">
       <c r="A90" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="91" ht="33.0" customHeight="true">
       <c r="A91" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" ht="42.0" customHeight="true">
       <c r="A92" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" ht="42.0" customHeight="true">
       <c r="A93" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" ht="42.0" customHeight="true">
       <c r="A94" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" ht="42.0" customHeight="true">
       <c r="A95" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" ht="33.0" customHeight="true">
       <c r="A96" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" ht="42.0" customHeight="true">
       <c r="A97" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" ht="42.0" customHeight="true">
       <c r="A98" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" ht="42.0" customHeight="true">
       <c r="A99" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" ht="33.0" customHeight="true">
       <c r="A100" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" ht="42.0" customHeight="true">
       <c r="A101" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" ht="33.0" customHeight="true">
       <c r="A102" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" ht="42.0" customHeight="true">
       <c r="A103" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" ht="42.0" customHeight="true">
       <c r="A104" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" ht="33.0" customHeight="true">
@@ -1940,10 +1973,10 @@
         <v>69</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" ht="15.0" customHeight="true">
@@ -1955,13 +1988,13 @@
     <row r="107" ht="33.0" customHeight="true">
       <c r="A107" s="6"/>
       <c r="B107" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
